--- a/data_partition/Case_partition.xlsx
+++ b/data_partition/Case_partition.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\work\Python_env\myenv_ct_gender\cranial_ct_gender_classification\deployment\ForensicSexEstimation\data_partition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0B3635-8A7D-4143-9B69-8409C9DFC28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7FAD86-168A-4A2F-A81C-CEAFAFA7EFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29600" yWindow="50" windowWidth="19200" windowHeight="13400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
     <sheet name="Train0" sheetId="2" r:id="rId2"/>
     <sheet name="Val0" sheetId="3" r:id="rId3"/>
+    <sheet name="Train1" sheetId="4" r:id="rId4"/>
+    <sheet name="Val1" sheetId="5" r:id="rId5"/>
+    <sheet name="Train2" sheetId="6" r:id="rId6"/>
+    <sheet name="Val2" sheetId="7" r:id="rId7"/>
+    <sheet name="Train3" sheetId="8" r:id="rId8"/>
+    <sheet name="Val3" sheetId="9" r:id="rId9"/>
+    <sheet name="Train4" sheetId="10" r:id="rId10"/>
+    <sheet name="Val4" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="10">
   <si>
     <t>Sample ID</t>
   </si>
@@ -386,7 +394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -410,6 +418,94 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1008E66C-25D4-48BC-B4F0-547C52131FA7}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA79D06E-D128-4090-B46D-4B16EC6953AF}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B89469-D291-4FB8-B641-B6FBEE5E5A81}">
   <dimension ref="A1:I1"/>
@@ -458,8 +554,275 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC90F6C0-6858-478A-92BB-14E0964BCC2A}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F768B8EF-32B4-444E-801E-2074835A5527}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBCF6FC-0CB7-432F-B889-706334DC8D90}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CD9B11-A8DE-4F54-9353-0F9599CBE180}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="19.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC02DD7-C001-43D5-A726-5681EEA7578A}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71C5437-6930-4B22-923A-C41DF9717395}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2661FB2-E998-401F-A776-09D62C549542}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
